--- a/data/trans_dic/P17G_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.9794109980461916</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.9859032910341279</v>
+        <v>0.9859032910341277</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.9793342322396715</v>
@@ -685,7 +685,7 @@
         <v>0.9664199569445896</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.9774681597113476</v>
+        <v>0.9774681597113475</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.9720156550730449</v>
@@ -697,7 +697,7 @@
         <v>0.9714310176210613</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.980536849366644</v>
+        <v>0.9805368493666442</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9350100234414335</v>
+        <v>0.9340797707352085</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9383576771569642</v>
+        <v>0.9400038131886924</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9525541739191207</v>
+        <v>0.9546007026198148</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.9609501068307821</v>
+        <v>0.9590596364070758</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.9605256505850708</v>
+        <v>0.9640272713855543</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.9636420322416217</v>
+        <v>0.9639120029053806</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.9414127215123107</v>
+        <v>0.9409327593175354</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.9585209866675947</v>
+        <v>0.9566260111994812</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.9596854360226964</v>
+        <v>0.9586977048816333</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.9611326073385842</v>
+        <v>0.962585966543844</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.9541598705240417</v>
+        <v>0.9567608418571919</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.9674811461896148</v>
+        <v>0.9656742091573759</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9779022207014157</v>
+        <v>0.9760207194341229</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9816705174101996</v>
+        <v>0.9826401307440197</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9921249239924325</v>
+        <v>0.9922773499365177</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9969003478712803</v>
+        <v>0.9968950484329773</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9886734163122489</v>
+        <v>0.9897401192038633</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9886992074439201</v>
+        <v>0.9887125359607237</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9818894803294934</v>
+        <v>0.981440326336019</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9892272830416101</v>
+        <v>0.9893242022607589</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9819910985829199</v>
+        <v>0.982363753212915</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.9835443135921514</v>
+        <v>0.9832990291156145</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.9824869877625091</v>
+        <v>0.9826259210224709</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.989368668562989</v>
+        <v>0.9891495930040868</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.908003143998859</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.901452557116403</v>
+        <v>0.9014525571164033</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.9192530342305895</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.847622269854722</v>
+        <v>0.8455556559185607</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8901324926010936</v>
+        <v>0.8843452178613351</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.87986226780429</v>
+        <v>0.8747429121225725</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8594764313459978</v>
+        <v>0.8622504771283483</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8867185864518667</v>
+        <v>0.8889039083735152</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.9518418965652004</v>
+        <v>0.9521840833206116</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.9194702291227607</v>
+        <v>0.9239540218040926</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.8841587395496071</v>
+        <v>0.8861024177391258</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.883778281813102</v>
+        <v>0.8820901477908635</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.9338979385132302</v>
+        <v>0.9317941811831242</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.9094666084709715</v>
+        <v>0.9125839512574883</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.882809926789042</v>
+        <v>0.8849107490061152</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.923805916817741</v>
+        <v>0.9229468848634079</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9495164316238994</v>
+        <v>0.9494063388344508</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9320488694283561</v>
+        <v>0.9322998707945299</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9274199805624346</v>
+        <v>0.9298543319015985</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9439672932034372</v>
+        <v>0.9434249171193033</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9855707812785715</v>
+        <v>0.9840317077726166</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9623440116679709</v>
+        <v>0.9634065430246668</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9317417590935508</v>
+        <v>0.9309549258397597</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9297005803723765</v>
+        <v>0.9289917471103026</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.9659570477709166</v>
+        <v>0.9652493899669378</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.9438884610384035</v>
+        <v>0.9432019898327451</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.9235567251066981</v>
+        <v>0.9235753280499123</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.7870850702772428</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.7848046393658504</v>
+        <v>0.7848046393658503</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.8145355469801961</v>
@@ -957,7 +957,7 @@
         <v>0.8248451050500131</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.7530475210514739</v>
+        <v>0.753047521051474</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.7738914084099078</v>
@@ -969,7 +969,7 @@
         <v>0.8072695482055058</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.767469536948182</v>
+        <v>0.7674695369481822</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5762289714580352</v>
+        <v>0.5864055394490046</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7066499909829042</v>
+        <v>0.697372382926622</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7039190740511129</v>
+        <v>0.6935449505015124</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7071036225687889</v>
+        <v>0.7065492905581934</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7381146415303109</v>
+        <v>0.7379610103251278</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7077907660209199</v>
+        <v>0.6996844913502108</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7552670563907308</v>
+        <v>0.7544413326831779</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.6929220518312701</v>
+        <v>0.6909428702972201</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.7056271568260547</v>
+        <v>0.7085544399397656</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.7458470950435522</v>
+        <v>0.7492684434693639</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.755497888056652</v>
+        <v>0.7490724628042443</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.7174847336912742</v>
+        <v>0.7172258075871997</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8116887388379617</v>
+        <v>0.8063581015445317</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9065089308977722</v>
+        <v>0.9050904950691996</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8566672756145263</v>
+        <v>0.855605233571119</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8497907915653621</v>
+        <v>0.851437058047097</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8837488794151466</v>
+        <v>0.881609484379667</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8868586214778738</v>
+        <v>0.8761623288614031</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8855666290960013</v>
+        <v>0.8880455315447173</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8088412797742435</v>
+        <v>0.8041285149523939</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8314562973070407</v>
+        <v>0.8346458403635448</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.8741556179111912</v>
+        <v>0.8759461772671657</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.8525346323274284</v>
+        <v>0.8560900076386077</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.8092769939580593</v>
+        <v>0.8087691399405388</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.9125843862688161</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.8947120077095116</v>
+        <v>0.8947120077095119</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.9379147769745596</v>
@@ -1105,7 +1105,7 @@
         <v>0.9272604237350986</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.8972186480229797</v>
+        <v>0.89721864802298</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8804698146954999</v>
+        <v>0.8797487139837572</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9118854769398758</v>
+        <v>0.9109309959515584</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.890285804880778</v>
+        <v>0.8909188012894116</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8673896659736151</v>
+        <v>0.8669914382557626</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9208525527601105</v>
+        <v>0.920880321415508</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.9450610904596828</v>
+        <v>0.9453541136367473</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9228849531339252</v>
+        <v>0.9225802048519093</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.8810342954581526</v>
+        <v>0.8805510751374853</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.9114757422732273</v>
+        <v>0.9129636946359428</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.9377971694180238</v>
+        <v>0.9361254165481303</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.9143202941251217</v>
+        <v>0.9144964181304707</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.880503865311003</v>
+        <v>0.8817665118192038</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9278268039867597</v>
+        <v>0.9269419439024092</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9511583303999751</v>
+        <v>0.9483684496330863</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9304369786520713</v>
+        <v>0.9314073221011537</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9169729633562422</v>
+        <v>0.9181812794083698</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9514194172536717</v>
+        <v>0.9524752625553232</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9697701770484087</v>
+        <v>0.9703151189522378</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9523042202779785</v>
+        <v>0.9510499505120797</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9139811721955142</v>
+        <v>0.9161642453608845</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9382894552028648</v>
+        <v>0.938168914600453</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.9576836654478059</v>
+        <v>0.9573100361163468</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.9384635488283609</v>
+        <v>0.9387181616914348</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.9100729200859227</v>
+        <v>0.91139761520902</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>312470</v>
+        <v>312159</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>316678</v>
+        <v>317233</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>246010</v>
+        <v>246539</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>141394</v>
+        <v>141116</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>507225</v>
+        <v>509074</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>521508</v>
+        <v>521654</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>387182</v>
+        <v>386985</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>246642</v>
+        <v>246154</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>827498</v>
+        <v>826647</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>844514</v>
+        <v>845791</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>638850</v>
+        <v>640592</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>391303</v>
+        <v>390572</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>326804</v>
+        <v>326175</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>331295</v>
+        <v>331622</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>256230</v>
+        <v>256270</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>146684</v>
+        <v>146683</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>522089</v>
+        <v>522652</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>535068</v>
+        <v>535075</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>403830</v>
+        <v>403645</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>254543</v>
+        <v>254568</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>846732</v>
+        <v>847053</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>864206</v>
+        <v>863990</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>657816</v>
+        <v>657909</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>400155</v>
+        <v>400066</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>211779</v>
+        <v>211263</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>316464</v>
+        <v>314407</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>405334</v>
+        <v>402976</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>340552</v>
+        <v>341651</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>358369</v>
+        <v>359252</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>463121</v>
+        <v>463287</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>537228</v>
+        <v>539848</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>432819</v>
+        <v>433770</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>577994</v>
+        <v>576890</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>786414</v>
+        <v>784642</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>950355</v>
+        <v>953613</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>781956</v>
+        <v>783817</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>230814</v>
+        <v>230599</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>337577</v>
+        <v>337538</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>429375</v>
+        <v>429491</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>367473</v>
+        <v>368438</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>381506</v>
+        <v>381287</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>479531</v>
+        <v>478783</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>562278</v>
+        <v>562899</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>456112</v>
+        <v>455727</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>608027</v>
+        <v>607563</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>813410</v>
+        <v>812814</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>986325</v>
+        <v>985607</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>818048</v>
+        <v>818064</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>41355</v>
+        <v>42086</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>52872</v>
+        <v>52177</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>84967</v>
+        <v>83714</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>103509</v>
+        <v>103428</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>85731</v>
+        <v>85713</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>76251</v>
+        <v>75378</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>104697</v>
+        <v>104583</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>121921</v>
+        <v>121573</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>132599</v>
+        <v>133149</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>136154</v>
+        <v>136779</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>195922</v>
+        <v>194255</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>231272</v>
+        <v>231188</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>58254</v>
+        <v>57872</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>67825</v>
+        <v>67719</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>103404</v>
+        <v>103276</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>124396</v>
+        <v>124637</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>102646</v>
+        <v>102397</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>95542</v>
+        <v>94390</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>122760</v>
+        <v>123104</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>142317</v>
+        <v>141488</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>156244</v>
+        <v>156843</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>159577</v>
+        <v>159904</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>221086</v>
+        <v>222008</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>260860</v>
+        <v>260696</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>577420</v>
+        <v>576947</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>700169</v>
+        <v>699437</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>747527</v>
+        <v>748058</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>598288</v>
+        <v>598013</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>965394</v>
+        <v>965423</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1073085</v>
+        <v>1073417</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1046719</v>
+        <v>1046373</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>813012</v>
+        <v>812566</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1553318</v>
+        <v>1555854</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1784902</v>
+        <v>1781720</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1804713</v>
+        <v>1805060</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1419857</v>
+        <v>1421893</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>608477</v>
+        <v>607897</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>730324</v>
+        <v>728182</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>781240</v>
+        <v>782054</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>632489</v>
+        <v>633322</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>997440</v>
+        <v>998546</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1101141</v>
+        <v>1101760</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>1080085</v>
+        <v>1078663</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>843415</v>
+        <v>845430</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1599013</v>
+        <v>1598808</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1822752</v>
+        <v>1822041</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1852368</v>
+        <v>1852870</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1467538</v>
+        <v>1469674</v>
       </c>
     </row>
     <row r="20">
